--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
@@ -57,112 +57,16 @@
     <t>Connect Device with WIFI</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0749
-};
-validate4
-{
-validate_Result=1
-validate_Result=Connected
-};
-validate5
-{
-validate_Result=2
-validate_Result=Disconnected
-};
-</t>
-  </si>
-  <si>
     <t>Network Event with valid server IP</t>
   </si>
   <si>
     <t>Stop network checking</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0751
-};
-validate4
-{
-validate_Result=1
-validate_Result=Connected
-};
-validate5
-{
-validate_Result=2
-validate_Result=Disconnected
-};
-</t>
-  </si>
-  <si>
     <t>Test Network event of JSON Object type</t>
   </si>
   <si>
     <t>Check NetworkPollInterval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0755
-};
-validate4
-{
-validate_Result=Connected
-};
-validate5
-{
-validate_Result=Disconnected
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0752
-};
-validate4
-{
-validate_Result=Connected
-};
-validate5
-{
-validate_Result=Disconnected
-};
-</t>
   </si>
   <si>
     <t>Check Network event of HTTP url type</t>
@@ -182,7 +86,41 @@
     <t>Check network event upon toggling the WLAN connection</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0752_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(2);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate5;
+wifi_Mode(ON);
+CheckUITextContains(Connected);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0755_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(60);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate5;
+wifi_Mode(ON);
+CheckUITextContains(Connected);</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -192,20 +130,19 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0750
+validate_Text_Exists=VT187-0752
 };
 validate4
 {
-validate_doesNotContain=Connected
+validate_Result=Connected
 };
 validate5
 {
-validate_doesNotContain=Connected
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -215,16 +152,45 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0757
+validate_Text_Exists=VT187-0751
 };
 validate4
 {
-validate_PageTitle=Navigation Check
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
+validate_Result=1
+validate_Result=Connected
+};
+validate5
+{
+validate_Result=2
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0749
+};
+validate4
+{
+validate_Result=1
+validate_Result=Connected
+};
+validate5
+{
+validate_Result=2
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(network22_test_link);
 wait(2);
@@ -238,11 +204,32 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
-CheckUITextContains(Connected);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
+CheckUITextContains(Connected);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0750
+};
+validate4
+{
+validate_doesNotContain=Connected
+};
+validate5
+{
+validate_doesNotContain=Connected
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(network22_test_link);
 wait(2);
@@ -256,11 +243,62 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
-CheckUITextContains(Connected);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
+CheckUITextContains(Connected);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0757_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0757
+};
+validate4
+{
+validate_PageTitle=Navigation Check
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0755
+};
+validate4
+{
+validate_Result=Connected
+};
+validate5
+{
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(network22_test_link);
 wait(2);
@@ -274,57 +312,7 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
-CheckUITextContains(Connected);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0752_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(2);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate5;
-wifi_Mode(ON);
-CheckUITextContains(Connected);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0755_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(60);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate5;
-wifi_Mode(ON);
-CheckUITextContains(Connected);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0757_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-press_Key(Home);
-</t>
+CheckUITextContains(Connected);</t>
   </si>
 </sst>
 </file>
@@ -827,7 +815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -885,13 +875,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -900,7 +890,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="294" thickBot="1">
+    <row r="3" spans="1:11" ht="281.25" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -912,22 +902,22 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="281.25" thickBot="1">
+    <row r="4" spans="1:11" ht="255.75" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -939,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -948,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="294" thickBot="1">
+    <row r="5" spans="1:11" ht="281.25" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -966,22 +956,22 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="281.25" thickBot="1">
+    <row r="6" spans="1:11" ht="255.75" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -993,22 +983,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="281.25" thickBot="1">
+    <row r="7" spans="1:11" ht="255.75" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1020,22 +1010,22 @@
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="230.25" thickBot="1">
+    <row r="8" spans="1:11" ht="204.75" thickBot="1">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1046,16 +1036,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
@@ -86,6 +86,207 @@
     <t>Check network event upon toggling the WLAN connection</t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0752
+};
+validate4
+{
+validate_Result=Connected
+};
+validate5
+{
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0751
+};
+validate4
+{
+validate_Result=1
+validate_Result=Connected
+};
+validate5
+{
+validate_Result=2
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0749
+};
+validate4
+{
+validate_Result=1
+validate_Result=Connected
+};
+validate5
+{
+validate_Result=2
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0750
+};
+validate4
+{
+validate_doesNotContain=Connected
+};
+validate5
+{
+validate_doesNotContain=Connected
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0757_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0757
+};
+validate4
+{
+validate_PageTitle=Navigation Check
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0755
+};
+validate4
+{
+validate_Result=Connected
+};
+validate5
+{
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0749_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(2);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate5;
+wifi_Mode(ON);
+CheckUITextContains(Connected);
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0750_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(2);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate5;
+wifi_Mode(ON);
+CheckUITextContains(Connected);
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0751_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(2);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate5;
+wifi_Mode(ON);
+CheckUITextContains(Connected);
+press_Key(Home);</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(network22_test_link);
@@ -97,10 +298,12 @@
 validate4;
 wifi_Mode(OFF);
 wait(2);
+press_Key(Home);
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
-CheckUITextContains(Connected);</t>
+CheckUITextContains(Connected);
+press_Key(Home);</t>
   </si>
   <si>
     <t>wait(3);
@@ -114,205 +317,12 @@
 validate4;
 wifi_Mode(OFF);
 wait(60);
+press_Key(Home);
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
-CheckUITextContains(Connected);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0752
-};
-validate4
-{
-validate_Result=Connected
-};
-validate5
-{
-validate_Result=Disconnected
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0751
-};
-validate4
-{
-validate_Result=1
-validate_Result=Connected
-};
-validate5
-{
-validate_Result=2
-validate_Result=Disconnected
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0749
-};
-validate4
-{
-validate_Result=1
-validate_Result=Connected
-};
-validate5
-{
-validate_Result=2
-validate_Result=Disconnected
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0749_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(2);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate5;
-wifi_Mode(ON);
-CheckUITextContains(Connected);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0750
-};
-validate4
-{
-validate_doesNotContain=Connected
-};
-validate5
-{
-validate_doesNotContain=Connected
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0750_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(2);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate5;
-wifi_Mode(ON);
-CheckUITextContains(Connected);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0757_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
+CheckUITextContains(Connected);
 press_Key(Home);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0757
-};
-validate4
-{
-validate_PageTitle=Navigation Check
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
-validate_Text_Exists=VT187-0755
-};
-validate4
-{
-validate_Result=Connected
-};
-validate5
-{
-validate_Result=Disconnected
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0751_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(2);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate5;
-wifi_Mode(ON);
-CheckUITextContains(Connected);</t>
   </si>
 </sst>
 </file>
@@ -816,7 +826,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -935,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -962,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -989,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1016,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1042,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
@@ -178,18 +178,6 @@
 };</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0757_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-press_Key(Home);</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
@@ -245,6 +233,7 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
+wait(20);
 CheckUITextContains(Connected);
 press_Key(Home);</t>
   </si>
@@ -264,6 +253,7 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
+wait(20);
 CheckUITextContains(Connected);
 press_Key(Home);</t>
   </si>
@@ -283,6 +273,7 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
+wait(20);
 CheckUITextContains(Connected);
 press_Key(Home);</t>
   </si>
@@ -302,6 +293,7 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
+wait(20);
 CheckUITextContains(Connected);
 press_Key(Home);</t>
   </si>
@@ -321,7 +313,21 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate5;
 wifi_Mode(ON);
+wait(20);
 CheckUITextContains(Connected);
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0757_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(5);
+validate4;
 press_Key(Home);</t>
   </si>
 </sst>
@@ -826,7 +832,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -918,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>22</v>
@@ -945,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>23</v>
@@ -972,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>21</v>
@@ -999,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>20</v>
@@ -1026,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1052,10 +1058,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
@@ -166,28 +166,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0750
-};
-validate4
-{
-validate_doesNotContain=Connected
-};
-validate5
-{
-validate_doesNotContain=Connected
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Network
-};
-validate3
-{
 validate_Text_Exists=VT187-0757
 };
 validate4
@@ -216,6 +194,19 @@
 {
 validate_Result=Disconnected
 };</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0757_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(5);
+validate4;
+press_Key(Home);</t>
   </si>
   <si>
     <t>wait(3);
@@ -234,7 +225,63 @@
 validate5;
 wifi_Mode(ON);
 wait(20);
-CheckUITextContains(Connected);
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0751_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(2);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate5;
+wifi_Mode(ON);
+wait(20);
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0755_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(60);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate5;
+wifi_Mode(ON);
+wait(20);
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0752_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(2);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate5;
+wifi_Mode(ON);
+wait(20);
 press_Key(Home);</t>
   </si>
   <si>
@@ -254,81 +301,29 @@
 validate5;
 wifi_Mode(ON);
 wait(20);
-CheckUITextContains(Connected);
 press_Key(Home);</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0751_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(2);
-press_Key(Home);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate5;
-wifi_Mode(ON);
-wait(20);
-CheckUITextContains(Connected);
-press_Key(Home);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0752_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(2);
-press_Key(Home);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate5;
-wifi_Mode(ON);
-wait(20);
-CheckUITextContains(Connected);
-press_Key(Home);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0755_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(60);
-press_Key(Home);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate5;
-wifi_Mode(ON);
-wait(20);
-CheckUITextContains(Connected);
-press_Key(Home);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0757_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate4;
-press_Key(Home);</t>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Network
+};
+validate3
+{
+validate_Text_Exists=VT187-0750
+};
+validate4
+{
+validate_Result=Connected
+};
+validate5
+{
+validate_doesNotContain=Disconnected
+};</t>
   </si>
 </sst>
 </file>
@@ -832,7 +827,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -951,10 +946,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -978,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>21</v>
@@ -1032,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1048,7 +1043,7 @@
       <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -1058,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Network.xlsx
@@ -201,19 +201,6 @@
 link_Click(network22_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_0757_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate4;
-press_Key(Home);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network22_test_link);
-wait(2);
-validate2;
 SelectTestToRun(VT187_0749_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
@@ -324,6 +311,18 @@
 {
 validate_doesNotContain=Disconnected
 };</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network22_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0757_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(5);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -919,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>22</v>
@@ -946,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -973,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>21</v>
@@ -1000,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>20</v>
@@ -1027,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>24</v>
@@ -1053,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>23</v>
